--- a/biology/Botanique/Juliette_Jouhet/Juliette_Jouhet.xlsx
+++ b/biology/Botanique/Juliette_Jouhet/Juliette_Jouhet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juliette Jouhet est une chercheuse en biologie végétale travaillant pour le CNRS. Elle est récipiendaire de la Médaille de bronze du CNRS 2017[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juliette Jouhet est une chercheuse en biologie végétale travaillant pour le CNRS. Elle est récipiendaire de la Médaille de bronze du CNRS 2017.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jouhet obtient son doctorat en biologie à l'université Joseph-Fourier de Grenoble. Puis elle effectue un post-doctorat à  l’université de Cambridge.
 En 2010 elle intègre le CNRS au sein du Laboratoire de physiologie cellulaire et végétale (LPCV) et travaille sur le rôle et les propriétés des galactolipides dans la construction des membranes des cellules végétales (soutenu par un financement Jeunes Chercheurs de l’Agence nationale de la recherche).
@@ -544,7 +558,9 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille de bronze du CNRS (2017)</t>
         </is>
